--- a/src/predicciones/holt_winters/producto_109.xlsx
+++ b/src/predicciones/holt_winters/producto_109.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,47 +404,3017 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44929</v>
       </c>
       <c r="B2">
-        <v>1.501010059437793</v>
+        <v>2.002564107353421</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44930</v>
       </c>
       <c r="B3">
-        <v>1.00055274766381</v>
+        <v>2.00267883551511</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44931</v>
       </c>
       <c r="B4">
-        <v>1.000557789225399</v>
+        <v>2.002649146264794</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44934</v>
       </c>
       <c r="B5">
-        <v>1.000558483843934</v>
+        <v>1.00279502609853</v>
       </c>
       <c r="C5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>44935</v>
+      </c>
+      <c r="B6">
+        <v>2.00279516025233</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>44938</v>
+      </c>
+      <c r="B7">
+        <v>2.002795391260427</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>44939</v>
+      </c>
+      <c r="B8">
+        <v>1.005421098796906</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>44940</v>
+      </c>
+      <c r="B9">
+        <v>2.005360216406476</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>44941</v>
+      </c>
+      <c r="B10">
+        <v>2.005474944568165</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B11">
+        <v>2.005445255317849</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>44945</v>
+      </c>
+      <c r="B12">
+        <v>1.005591135151585</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>44947</v>
+      </c>
+      <c r="B13">
+        <v>2.005591269305385</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>44948</v>
+      </c>
+      <c r="B14">
+        <v>2.005591500313482</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>44950</v>
+      </c>
+      <c r="B15">
+        <v>1.008217207849961</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>44951</v>
+      </c>
+      <c r="B16">
+        <v>2.008156325459531</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>44952</v>
+      </c>
+      <c r="B17">
+        <v>2.00827105362122</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>44953</v>
+      </c>
+      <c r="B18">
+        <v>2.008241364370905</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>44954</v>
+      </c>
+      <c r="B19">
+        <v>1.008387244204641</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>44955</v>
+      </c>
+      <c r="B20">
+        <v>2.00838737835844</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>44956</v>
+      </c>
+      <c r="B21">
+        <v>2.008387609366538</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>44957</v>
+      </c>
+      <c r="B22">
+        <v>1.011013316903017</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B23">
+        <v>2.010952434512587</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B24">
+        <v>2.011067162674276</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>44961</v>
+      </c>
+      <c r="B25">
+        <v>2.01103747342396</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>44962</v>
+      </c>
+      <c r="B26">
+        <v>1.011183353257696</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B27">
+        <v>2.011183487411495</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>44967</v>
+      </c>
+      <c r="B28">
+        <v>2.011183718419593</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>44968</v>
+      </c>
+      <c r="B29">
+        <v>1.013809425956072</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>44970</v>
+      </c>
+      <c r="B30">
+        <v>2.013748543565642</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B31">
+        <v>2.013863271727331</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>44972</v>
+      </c>
+      <c r="B32">
+        <v>2.013833582477015</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B33">
+        <v>1.013979462310751</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>44974</v>
+      </c>
+      <c r="B34">
+        <v>2.01397959646455</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>44976</v>
+      </c>
+      <c r="B35">
+        <v>2.013979827472648</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B36">
+        <v>1.016605535009127</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>44979</v>
+      </c>
+      <c r="B37">
+        <v>2.016544652618697</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>44980</v>
+      </c>
+      <c r="B38">
+        <v>2.016659380780386</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>44981</v>
+      </c>
+      <c r="B39">
+        <v>2.016629691530071</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>44982</v>
+      </c>
+      <c r="B40">
+        <v>1.016775571363806</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>44983</v>
+      </c>
+      <c r="B41">
+        <v>2.016775705517606</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B42">
+        <v>2.016775936525703</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B43">
+        <v>1.019401644062182</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B44">
+        <v>2.019340761671752</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>44989</v>
+      </c>
+      <c r="B45">
+        <v>2.019455489833441</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>44991</v>
+      </c>
+      <c r="B46">
+        <v>2.019425800583125</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>44993</v>
+      </c>
+      <c r="B47">
+        <v>1.019571680416861</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>44994</v>
+      </c>
+      <c r="B48">
+        <v>2.019571814570661</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>44995</v>
+      </c>
+      <c r="B49">
+        <v>2.019572045578758</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>44996</v>
+      </c>
+      <c r="B50">
+        <v>1.022197753115237</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>44997</v>
+      </c>
+      <c r="B51">
+        <v>2.022136870724808</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>44998</v>
+      </c>
+      <c r="B52">
+        <v>2.022251598886496</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>44999</v>
+      </c>
+      <c r="B53">
+        <v>2.022221909636181</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45000</v>
+      </c>
+      <c r="B54">
+        <v>1.022367789469917</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B55">
+        <v>2.022367923623716</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B56">
+        <v>2.022368154631813</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45005</v>
+      </c>
+      <c r="B57">
+        <v>1.024993862168293</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45007</v>
+      </c>
+      <c r="B58">
+        <v>2.024932979777863</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45008</v>
+      </c>
+      <c r="B59">
+        <v>2.025047707939552</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45010</v>
+      </c>
+      <c r="B60">
+        <v>2.025018018689236</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45012</v>
+      </c>
+      <c r="B61">
+        <v>1.025163898522972</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45013</v>
+      </c>
+      <c r="B62">
+        <v>2.025164032676771</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45017</v>
+      </c>
+      <c r="B63">
+        <v>2.025164263684868</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45018</v>
+      </c>
+      <c r="B64">
+        <v>1.027789971221348</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B65">
+        <v>2.027729088830918</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B66">
+        <v>2.027843816992607</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45026</v>
+      </c>
+      <c r="B67">
+        <v>2.027814127742291</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B68">
+        <v>1.027960007576027</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45028</v>
+      </c>
+      <c r="B69">
+        <v>2.027960141729826</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45029</v>
+      </c>
+      <c r="B70">
+        <v>2.027960372737924</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45030</v>
+      </c>
+      <c r="B71">
+        <v>1.030586080274403</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45031</v>
+      </c>
+      <c r="B72">
+        <v>2.030525197883973</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45032</v>
+      </c>
+      <c r="B73">
+        <v>2.030639926045662</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B74">
+        <v>2.030610236795346</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45034</v>
+      </c>
+      <c r="B75">
+        <v>1.030756116629082</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45035</v>
+      </c>
+      <c r="B76">
+        <v>2.030756250782881</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45038</v>
+      </c>
+      <c r="B77">
+        <v>2.030756481790979</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45039</v>
+      </c>
+      <c r="B78">
+        <v>1.033382189327458</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B79">
+        <v>2.033321306937028</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45043</v>
+      </c>
+      <c r="B80">
+        <v>2.033436035098717</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B81">
+        <v>2.033406345848401</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45046</v>
+      </c>
+      <c r="B82">
+        <v>1.033552225682137</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45048</v>
+      </c>
+      <c r="B83">
+        <v>2.033552359835936</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45049</v>
+      </c>
+      <c r="B84">
+        <v>2.033552590844034</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45050</v>
+      </c>
+      <c r="B85">
+        <v>1.036178298380513</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45051</v>
+      </c>
+      <c r="B86">
+        <v>2.036117415990083</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45052</v>
+      </c>
+      <c r="B87">
+        <v>2.036232144151772</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45053</v>
+      </c>
+      <c r="B88">
+        <v>2.036202454901456</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45055</v>
+      </c>
+      <c r="B89">
+        <v>1.036348334735193</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45057</v>
+      </c>
+      <c r="B90">
+        <v>2.036348468888992</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45058</v>
+      </c>
+      <c r="B91">
+        <v>2.036348699897089</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45059</v>
+      </c>
+      <c r="B92">
+        <v>1.038974407433569</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45060</v>
+      </c>
+      <c r="B93">
+        <v>2.038913525043139</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B94">
+        <v>2.039028253204827</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B95">
+        <v>2.038998563954512</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B96">
+        <v>1.039144443788248</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B97">
+        <v>2.039144577942047</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B98">
+        <v>2.039144808950144</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B99">
+        <v>1.041770516486624</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B100">
+        <v>2.041709634096194</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B101">
+        <v>2.041824362257882</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B102">
+        <v>2.041794673007567</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B103">
+        <v>1.041940552841303</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B104">
+        <v>2.041940686995102</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B105">
+        <v>2.0419409180032</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B106">
+        <v>1.044566625539679</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B107">
+        <v>2.044505743149249</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B108">
+        <v>2.044620471310938</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B109">
+        <v>2.044590782060622</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B110">
+        <v>1.044736661894358</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B111">
+        <v>2.044736796048157</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B112">
+        <v>2.044737027056255</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B113">
+        <v>1.047362734592734</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B114">
+        <v>2.047301852202304</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B115">
+        <v>2.047416580363993</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B116">
+        <v>2.047386891113677</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B117">
+        <v>1.047532770947413</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B118">
+        <v>2.047532905101213</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B119">
+        <v>2.04753313610931</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B120">
+        <v>1.050158843645789</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B121">
+        <v>2.050097961255359</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B122">
+        <v>2.050212689417048</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B123">
+        <v>2.050183000166732</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B124">
+        <v>1.050328880000468</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B125">
+        <v>2.050329014154268</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B126">
+        <v>2.050329245162365</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B127">
+        <v>1.052954952698844</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B128">
+        <v>2.052894070308414</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B129">
+        <v>2.053008798470103</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B130">
+        <v>2.052979109219788</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B131">
+        <v>1.053124989053523</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B132">
+        <v>2.053125123207323</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B133">
+        <v>2.05312535421542</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B134">
+        <v>1.055751061751899</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B135">
+        <v>2.055690179361469</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B136">
+        <v>2.055804907523159</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B137">
+        <v>2.055775218272843</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B138">
+        <v>1.055921098106579</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B139">
+        <v>2.055921232260378</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B140">
+        <v>2.055921463268476</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>45130</v>
+      </c>
+      <c r="B141">
+        <v>1.058547170804955</v>
+      </c>
+      <c r="C141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B142">
+        <v>2.058486288414525</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>45136</v>
+      </c>
+      <c r="B143">
+        <v>2.058601016576214</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B144">
+        <v>2.058571327325898</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B145">
+        <v>1.058717207159634</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B146">
+        <v>2.058717341313433</v>
+      </c>
+      <c r="C146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B147">
+        <v>2.058717572321531</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B148">
+        <v>1.06134327985801</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B149">
+        <v>2.06128239746758</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>45150</v>
+      </c>
+      <c r="B150">
+        <v>2.061397125629269</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>45151</v>
+      </c>
+      <c r="B151">
+        <v>2.061367436378953</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>45152</v>
+      </c>
+      <c r="B152">
+        <v>1.061513316212689</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B153">
+        <v>2.061513450366488</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>45157</v>
+      </c>
+      <c r="B154">
+        <v>2.061513681374586</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B155">
+        <v>1.064139388911065</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
+        <v>45161</v>
+      </c>
+      <c r="B156">
+        <v>2.064078506520635</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B157">
+        <v>2.064193234682324</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B158">
+        <v>2.064163545432009</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>45164</v>
+      </c>
+      <c r="B159">
+        <v>1.064309425265744</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
+        <v>45166</v>
+      </c>
+      <c r="B160">
+        <v>2.064309559419543</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B161">
+        <v>2.064309790427641</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
+        <v>45171</v>
+      </c>
+      <c r="B162">
+        <v>1.06693549796412</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
+        <v>45172</v>
+      </c>
+      <c r="B163">
+        <v>2.06687461557369</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B164">
+        <v>2.066989343735379</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
+        <v>45175</v>
+      </c>
+      <c r="B165">
+        <v>2.066959654485063</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B166">
+        <v>1.067105534318799</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B167">
+        <v>2.067105668472599</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
+        <v>45179</v>
+      </c>
+      <c r="B168">
+        <v>2.067105899480696</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
+        <v>45181</v>
+      </c>
+      <c r="B169">
+        <v>1.069731607017175</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2">
+        <v>45182</v>
+      </c>
+      <c r="B170">
+        <v>2.069670724626746</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
+        <v>45183</v>
+      </c>
+      <c r="B171">
+        <v>2.069785452788434</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2">
+        <v>45184</v>
+      </c>
+      <c r="B172">
+        <v>2.069755763538119</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2">
+        <v>45185</v>
+      </c>
+      <c r="B173">
+        <v>1.069901643371855</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2">
+        <v>45186</v>
+      </c>
+      <c r="B174">
+        <v>2.069901777525654</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2">
+        <v>45190</v>
+      </c>
+      <c r="B175">
+        <v>2.069902008533751</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2">
+        <v>45191</v>
+      </c>
+      <c r="B176">
+        <v>1.072527716070231</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2">
+        <v>45192</v>
+      </c>
+      <c r="B177">
+        <v>2.072466833679801</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2">
+        <v>45194</v>
+      </c>
+      <c r="B178">
+        <v>2.072581561841489</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2">
+        <v>45195</v>
+      </c>
+      <c r="B179">
+        <v>2.072551872591174</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B180">
+        <v>1.07269775242491</v>
+      </c>
+      <c r="C180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B181">
+        <v>2.072697886578709</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B182">
+        <v>2.072698117586806</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2">
+        <v>45202</v>
+      </c>
+      <c r="B183">
+        <v>1.075323825123286</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B184">
+        <v>2.075262942732856</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B185">
+        <v>2.075377670894545</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2">
+        <v>45206</v>
+      </c>
+      <c r="B186">
+        <v>2.075347981644229</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2">
+        <v>45207</v>
+      </c>
+      <c r="B187">
+        <v>1.075493861477965</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2">
+        <v>45209</v>
+      </c>
+      <c r="B188">
+        <v>2.075493995631764</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2">
+        <v>45213</v>
+      </c>
+      <c r="B189">
+        <v>2.075494226639862</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2">
+        <v>45216</v>
+      </c>
+      <c r="B190">
+        <v>1.078119934176341</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B191">
+        <v>2.078059051785911</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B192">
+        <v>2.0781737799476</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B193">
+        <v>2.078144090697284</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2">
+        <v>45221</v>
+      </c>
+      <c r="B194">
+        <v>1.07828997053102</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2">
+        <v>45222</v>
+      </c>
+      <c r="B195">
+        <v>2.078290104684819</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2">
+        <v>45225</v>
+      </c>
+      <c r="B196">
+        <v>2.078290335692917</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2">
+        <v>45227</v>
+      </c>
+      <c r="B197">
+        <v>1.080916043229396</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
+        <v>45234</v>
+      </c>
+      <c r="B198">
+        <v>2.080855160838966</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2">
+        <v>45235</v>
+      </c>
+      <c r="B199">
+        <v>2.080969889000655</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2">
+        <v>45236</v>
+      </c>
+      <c r="B200">
+        <v>2.080940199750339</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2">
+        <v>45237</v>
+      </c>
+      <c r="B201">
+        <v>1.081086079584075</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="2">
+        <v>45238</v>
+      </c>
+      <c r="B202">
+        <v>2.081086213737875</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2">
+        <v>45239</v>
+      </c>
+      <c r="B203">
+        <v>2.081086444745972</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="2">
+        <v>45240</v>
+      </c>
+      <c r="B204">
+        <v>1.083712152282451</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2">
+        <v>45241</v>
+      </c>
+      <c r="B205">
+        <v>2.083651269892021</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2">
+        <v>45242</v>
+      </c>
+      <c r="B206">
+        <v>2.08376599805371</v>
+      </c>
+      <c r="C206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2">
+        <v>45244</v>
+      </c>
+      <c r="B207">
+        <v>2.083736308803394</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2">
+        <v>45246</v>
+      </c>
+      <c r="B208">
+        <v>1.083882188637131</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="2">
+        <v>45247</v>
+      </c>
+      <c r="B209">
+        <v>2.08388232279093</v>
+      </c>
+      <c r="C209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="2">
+        <v>45248</v>
+      </c>
+      <c r="B210">
+        <v>2.083882553799028</v>
+      </c>
+      <c r="C210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2">
+        <v>45250</v>
+      </c>
+      <c r="B211">
+        <v>1.086508261335506</v>
+      </c>
+      <c r="C211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B212">
+        <v>2.086447378945076</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2">
+        <v>45252</v>
+      </c>
+      <c r="B213">
+        <v>2.086562107106765</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2">
+        <v>45255</v>
+      </c>
+      <c r="B214">
+        <v>2.08653241785645</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="2">
+        <v>45256</v>
+      </c>
+      <c r="B215">
+        <v>1.086678297690186</v>
+      </c>
+      <c r="C215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B216">
+        <v>2.086678431843985</v>
+      </c>
+      <c r="C216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="2">
+        <v>45258</v>
+      </c>
+      <c r="B217">
+        <v>2.086678662852083</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="2">
+        <v>45259</v>
+      </c>
+      <c r="B218">
+        <v>1.089304370388562</v>
+      </c>
+      <c r="C218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B219">
+        <v>2.089243487998132</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="2">
+        <v>45262</v>
+      </c>
+      <c r="B220">
+        <v>2.089358216159821</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B221">
+        <v>2.089328526909505</v>
+      </c>
+      <c r="C221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B222">
+        <v>1.089474406743241</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="2">
+        <v>45267</v>
+      </c>
+      <c r="B223">
+        <v>2.08947454089704</v>
+      </c>
+      <c r="C223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B224">
+        <v>2.089474771905138</v>
+      </c>
+      <c r="C224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="2">
+        <v>45272</v>
+      </c>
+      <c r="B225">
+        <v>1.092100479441617</v>
+      </c>
+      <c r="C225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="2">
+        <v>45273</v>
+      </c>
+      <c r="B226">
+        <v>2.092039597051187</v>
+      </c>
+      <c r="C226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B227">
+        <v>2.092154325212876</v>
+      </c>
+      <c r="C227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="2">
+        <v>45276</v>
+      </c>
+      <c r="B228">
+        <v>2.09212463596256</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="2">
+        <v>45277</v>
+      </c>
+      <c r="B229">
+        <v>1.092270515796296</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B230">
+        <v>2.092270649950095</v>
+      </c>
+      <c r="C230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="2">
+        <v>45281</v>
+      </c>
+      <c r="B231">
+        <v>2.092270880958193</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="2">
+        <v>45282</v>
+      </c>
+      <c r="B232">
+        <v>1.094896588494672</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="2">
+        <v>45284</v>
+      </c>
+      <c r="B233">
+        <v>2.094835706104242</v>
+      </c>
+      <c r="C233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="2">
+        <v>45286</v>
+      </c>
+      <c r="B234">
+        <v>2.094950434265931</v>
+      </c>
+      <c r="C234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="2">
+        <v>45287</v>
+      </c>
+      <c r="B235">
+        <v>2.094920745015616</v>
+      </c>
+      <c r="C235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B236">
+        <v>1.095066624849351</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="2">
+        <v>45290</v>
+      </c>
+      <c r="B237">
+        <v>2.095066759003151</v>
+      </c>
+      <c r="C237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B238">
+        <v>2.095066990011248</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="2">
+        <v>45293</v>
+      </c>
+      <c r="B239">
+        <v>1.097692697547727</v>
+      </c>
+      <c r="C239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="2">
+        <v>45294</v>
+      </c>
+      <c r="B240">
+        <v>2.097631815157297</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B241">
+        <v>2.097746543318986</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B242">
+        <v>2.097716854068671</v>
+      </c>
+      <c r="C242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="2">
+        <v>45297</v>
+      </c>
+      <c r="B243">
+        <v>1.097862733902407</v>
+      </c>
+      <c r="C243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="2">
+        <v>45299</v>
+      </c>
+      <c r="B244">
+        <v>2.097862868056206</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B245">
+        <v>2.097863099064303</v>
+      </c>
+      <c r="C245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B246">
+        <v>1.100488806600782</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="2">
+        <v>45305</v>
+      </c>
+      <c r="B247">
+        <v>2.100427924210353</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="2">
+        <v>45306</v>
+      </c>
+      <c r="B248">
+        <v>2.100542652372041</v>
+      </c>
+      <c r="C248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B249">
+        <v>2.100512963121726</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="2">
+        <v>45308</v>
+      </c>
+      <c r="B250">
+        <v>1.100658842955462</v>
+      </c>
+      <c r="C250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B251">
+        <v>2.100658977109261</v>
+      </c>
+      <c r="C251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="2">
+        <v>45312</v>
+      </c>
+      <c r="B252">
+        <v>2.100659208117358</v>
+      </c>
+      <c r="C252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="2">
+        <v>45314</v>
+      </c>
+      <c r="B253">
+        <v>1.103284915653838</v>
+      </c>
+      <c r="C253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B254">
+        <v>2.103224033263408</v>
+      </c>
+      <c r="C254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="2">
+        <v>45318</v>
+      </c>
+      <c r="B255">
+        <v>2.103338761425097</v>
+      </c>
+      <c r="C255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="2">
+        <v>45319</v>
+      </c>
+      <c r="B256">
+        <v>2.103309072174781</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B257">
+        <v>1.103454952008517</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B258">
+        <v>2.103455086162316</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B259">
+        <v>2.103455317170414</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B260">
+        <v>1.106081024706893</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B261">
+        <v>2.106020142316463</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B262">
+        <v>2.106134870478152</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B263">
+        <v>2.106105181227836</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B264">
+        <v>1.106251061061572</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B265">
+        <v>2.106251195215371</v>
+      </c>
+      <c r="C265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B266">
+        <v>2.106251426223469</v>
+      </c>
+      <c r="C266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B267">
+        <v>1.108877133759948</v>
+      </c>
+      <c r="C267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B268">
+        <v>2.108816251369518</v>
+      </c>
+      <c r="C268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B269">
+        <v>2.108930979531207</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="2">
+        <v>45343</v>
+      </c>
+      <c r="B270">
+        <v>2.108901290280891</v>
+      </c>
+      <c r="C270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B271">
+        <v>1.109047170114627</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B272">
+        <v>2.109047304268426</v>
+      </c>
+      <c r="C272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="2">
+        <v>45346</v>
+      </c>
+      <c r="B273">
+        <v>2.109047535276524</v>
+      </c>
+      <c r="C273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="2">
+        <v>45349</v>
+      </c>
+      <c r="B274">
+        <v>1.111673242813003</v>
+      </c>
+      <c r="C274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="2">
+        <v>45350</v>
+      </c>
+      <c r="B275">
+        <v>2.111612360422573</v>
+      </c>
+      <c r="C275">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
